--- a/ESPN sports website/IPL/Chennai Super Kings/MS Dhoni (c)†.xlsx
+++ b/ESPN sports website/IPL/Chennai Super Kings/MS Dhoni (c)†.xlsx
@@ -445,31 +445,31 @@
         <v>MS Dhoni (c)†</v>
       </c>
       <c r="C2" t="str">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="str">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>114.28</v>
+        <v>70.00</v>
       </c>
       <c r="H2" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I2" t="str">
-        <v>Pune</v>
+        <v>Wankhede</v>
       </c>
       <c r="J2" t="str">
-        <v>May 01, 2022</v>
+        <v>May 15, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Super Kings won by 13 runs</v>
+        <v>Titans won by 7 wickets (with 5 balls remaining)</v>
       </c>
     </row>
     <row r="3">
@@ -480,31 +480,31 @@
         <v>MS Dhoni (c)†</v>
       </c>
       <c r="C3" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D3" t="str">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>66.66</v>
+        <v>114.28</v>
       </c>
       <c r="H3" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I3" t="str">
         <v>Pune</v>
       </c>
       <c r="J3" t="str">
-        <v>May 04, 2022</v>
+        <v>May 01, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>RCB won by 13 runs</v>
+        <v>Super Kings won by 13 runs</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>MS Dhoni (c)†</v>
       </c>
       <c r="C4" t="str">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D4" t="str">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="str">
-        <v>70.00</v>
+        <v>262.50</v>
       </c>
       <c r="H4" t="str">
-        <v>Gujarat Titans</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I4" t="str">
-        <v>Wankhede</v>
+        <v>DY Patil</v>
       </c>
       <c r="J4" t="str">
-        <v>May 15, 2022</v>
+        <v>May 08, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Titans won by 7 wickets (with 5 balls remaining)</v>
+        <v>Super Kings won by 91 runs</v>
       </c>
     </row>
     <row r="5">
@@ -585,31 +585,31 @@
         <v>MS Dhoni (c)†</v>
       </c>
       <c r="C6" t="str">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D6" t="str">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E6" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" t="str">
         <v>2</v>
       </c>
       <c r="G6" t="str">
-        <v>262.50</v>
+        <v>109.09</v>
       </c>
       <c r="H6" t="str">
-        <v>Delhi Capitals</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I6" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J6" t="str">
-        <v>May 08, 2022</v>
+        <v>May 12, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Super Kings won by 91 runs</v>
+        <v>Mumbai won by 5 wickets (with 31 balls remaining)</v>
       </c>
     </row>
     <row r="7">
@@ -620,31 +620,31 @@
         <v>MS Dhoni (c)†</v>
       </c>
       <c r="C7" t="str">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D7" t="str">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E7" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="str">
-        <v>109.09</v>
+        <v>66.66</v>
       </c>
       <c r="H7" t="str">
-        <v>Mumbai Indians</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I7" t="str">
-        <v>Wankhede</v>
+        <v>Pune</v>
       </c>
       <c r="J7" t="str">
-        <v>May 12, 2022</v>
+        <v>May 04, 2022</v>
       </c>
       <c r="K7" t="str">
-        <v>Mumbai won by 5 wickets (with 31 balls remaining)</v>
+        <v>RCB won by 13 runs</v>
       </c>
     </row>
   </sheetData>
